--- a/basico/Archivos de Trabajo/Capitulo 8/Impresión.xlsx
+++ b/basico/Archivos de Trabajo/Capitulo 8/Impresión.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Archivos Charo\Capitulo 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos-GitHub\cursos\curso-excel\basico\Archivos de Trabajo\Capitulo 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A29C8B-FF61-4686-810D-33E2576E6830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="10380" windowHeight="6540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -17,11 +18,23 @@
   <definedNames>
     <definedName name="Área_de_Impreción">Hoja1!$A$1:$N$41</definedName>
     <definedName name="IngresosAug">Hoja1!$I$6:$I$12</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$A:$A</definedName>
     <definedName name="Total_VentaBruto">Hoja1!$N$12</definedName>
     <definedName name="TotaldeIngresos1998">Hoja1!$N$43</definedName>
     <definedName name="Totales_Anuales">Hoja1!$N$43:$N$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -193,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -353,13 +366,13 @@
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Label" xfId="2"/>
+    <cellStyle name="Label" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Porcentual 2" xfId="6"/>
-    <cellStyle name="testing" xfId="3"/>
-    <cellStyle name="testing2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Porcentual 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="testing" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="testing2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2582,13 +2595,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;"TheSansCorrespondence,Negrita"&amp;20&amp;K04+000CIBERTEC&amp;C&amp;G&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;Z&amp;F&amp;C&amp;P&amp;R&amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B05585457A841F47946AAB1D5337D404" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="eef0bb7acb0a4d1bafe5e8732d71ad46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39400194-bc42-4635-9b9c-ec660e9ced1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbaf4a65febfd22e2db202637f89eeec" ns2:_="">
     <xsd:import namespace="39400194-bc42-4635-9b9c-ec660e9ced1f"/>
@@ -2720,29 +2752,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1DA140-FE02-4145-9BAD-BB849E7F12A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CC5D9C-B1F8-4598-AB1E-E3A91F477BB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC25097-152A-480E-89B5-130A2739BF39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC25097-152A-480E-89B5-130A2739BF39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CC5D9C-B1F8-4598-AB1E-E3A91F477BB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1DA140-FE02-4145-9BAD-BB849E7F12A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="39400194-bc42-4635-9b9c-ec660e9ced1f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>